--- a/medicine/Pharmacie/Dermocorticoïde/Dermocorticoïde.xlsx
+++ b/medicine/Pharmacie/Dermocorticoïde/Dermocorticoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dermocortico%C3%AFde</t>
+          <t>Dermocorticoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Les dermocorticoïdes sont des médicaments utilisés dans le traitement local de plusieurs affections dermatologiques depuis les années 1950[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Les dermocorticoïdes sont des médicaments utilisés dans le traitement local de plusieurs affections dermatologiques depuis les années 1950.
 Ils se présentent sous différentes formes adaptées à l'affection elle-même, mais aussi à sa localisation : pommade, crème, émulsion, lotion.
-Depuis 2004, on classe, en France, les dermocorticoïdes en 4 groupes selon leur niveau d'activité[2],[3] :
+Depuis 2004, on classe, en France, les dermocorticoïdes en 4 groupes selon leur niveau d'activité, :
 classe I : activité très forte (ne doivent jamais être utilisés sur le visage, utilisation possible sur le cuir chevelu).
 classe II : activité forte (ne doivent jamais être utilisés sur le visage, utilisation possible sur le cuir chevelu).
 classe III : activité modérée.
 classe IV : activité faible.
 Note : La classification des dermocorticoïdes est celle de l'AMM française. D'autres classifications internationales utilisent un ordre inverse[réf. souhaitée].
 On décrit des réactions allergiques aux dermocorticoïdes, à type d'eczéma de contact (ce qui peut sembler paradoxal pour des produits destinés en particulier à traiter l'eczéma). Le bilan allergologique devra déterminer la molécule responsable.
-Quatre groupes de corticoïdes sont testés en fonction de leur origine chimique[4],[5] :
+Quatre groupes de corticoïdes sont testés en fonction de leur origine chimique, :
 groupe A : dérivés de type hydrocortisone,
 groupe B : dérivés de type triamcinolone,
 groupe C : dérivés de type bétaméthasone,
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dermocortico%C3%AFde</t>
+          <t>Dermocorticoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +535,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Addiction aux corticoïdes ou syndrome de la peau en feu</t>
         </is>
